--- a/trunk/Docs/Project Management/preparação_semana_final.xlsx
+++ b/trunk/Docs/Project Management/preparação_semana_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\ISEC\MIS\1º ANO\Projecto de Software\Repository\Docs\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Desktop\Repositorios\ProjectoSW\Docs\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>shortcuts -  bugs + hotkey - 1h</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Prioridades</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -230,8 +233,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cabeçalho 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Correto" xfId="2" builtinId="26"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -248,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,7 +516,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +557,9 @@
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -569,6 +575,9 @@
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -613,6 +622,9 @@
       </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
